--- a/Team-Data/2020-21/1-3-2020-21.xlsx
+++ b/Team-Data/2020-21/1-3-2020-21.xlsx
@@ -2234,16 +2234,16 @@
         <v>11.7</v>
       </c>
       <c r="S10" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="T10" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U10" t="n">
         <v>24.2</v>
       </c>
       <c r="V10" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W10" t="n">
         <v>7.7</v>
@@ -2321,7 +2321,7 @@
         <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW10" t="n">
         <v>16</v>
@@ -3413,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW16" t="n">
         <v>17</v>
@@ -3777,7 +3777,7 @@
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>2</v>
